--- a/sevenget/survey_result.xlsx
+++ b/sevenget/survey_result.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="387">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>안정감 결혼하기위해서는 안정적인 회사생활이 필요한데 그렇지않으면 결혼을 생각하기 힘들것같다</t>
-  </si>
-  <si>
-    <t>위의 2번답과 비슷함</t>
   </si>
   <si>
     <t>미래에 대한 확신이 있다면 포기하지 않을듯</t>
@@ -3112,14 +3109,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="15" width="21.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="21.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="15" width="21.5703125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -3227,7 +3225,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>22</v>
@@ -3584,7 +3582,7 @@
         <v>99</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -3613,7 +3611,7 @@
         <v>104</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
@@ -3662,7 +3660,7 @@
         <v>113</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>114</v>
@@ -3807,16 +3805,16 @@
         <v>146</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
@@ -3932,7 +3930,7 @@
         <v>170</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
@@ -3949,19 +3947,19 @@
         <v>172</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
@@ -3972,25 +3970,25 @@
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
@@ -4001,25 +3999,25 @@
         <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="I31" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="178.5" x14ac:dyDescent="0.2">
@@ -4030,25 +4028,25 @@
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
@@ -4059,25 +4057,25 @@
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4091,22 +4089,22 @@
         <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="I34" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
@@ -4117,25 +4115,25 @@
         <v>21</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="H35" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
@@ -4146,25 +4144,25 @@
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="I36" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4175,25 +4173,25 @@
         <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="I37" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -4204,25 +4202,25 @@
         <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -4233,25 +4231,25 @@
         <v>21</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4262,25 +4260,25 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4291,25 +4289,25 @@
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4320,25 +4318,25 @@
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="165.75" x14ac:dyDescent="0.2">
@@ -4349,25 +4347,25 @@
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="I43" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
@@ -4378,25 +4376,25 @@
         <v>21</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
@@ -4407,25 +4405,25 @@
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="255" x14ac:dyDescent="0.2">
@@ -4436,25 +4434,25 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="331.5" x14ac:dyDescent="0.2">
@@ -4465,25 +4463,25 @@
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -4494,25 +4492,25 @@
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
@@ -4523,25 +4521,25 @@
         <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="I49" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4552,25 +4550,25 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="I50" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4581,25 +4579,25 @@
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4610,25 +4608,25 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
@@ -4639,25 +4637,25 @@
         <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4726,25 +4724,25 @@
         <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4755,25 +4753,25 @@
         <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4790,19 +4788,19 @@
         <v>65</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4816,22 +4814,22 @@
         <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
@@ -4842,25 +4840,25 @@
         <v>9</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4874,22 +4872,22 @@
         <v>25</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>146</v>
       </c>
       <c r="H61" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -4900,25 +4898,25 @@
         <v>9</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -4929,25 +4927,25 @@
         <v>9</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -4958,7 +4956,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>65</v>
@@ -4967,16 +4965,16 @@
         <v>65</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
@@ -4987,25 +4985,25 @@
         <v>21</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="306" x14ac:dyDescent="0.2">
@@ -5016,25 +5014,25 @@
         <v>21</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
